--- a/Beneficient/test_NAVRollForward/PDFFileNameData/FundName.xlsx
+++ b/Beneficient/test_NAVRollForward/PDFFileNameData/FundName.xlsx
@@ -391,13 +391,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="8.81640625" customWidth="1" min="1" max="1"/>
     <col width="50.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -414,7 +414,11 @@
           <t>21 Centrale Partners III</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-27$</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -425,7 +429,11 @@
           <t>360 Capital One S.C.A. SICAR</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-27$</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -436,7 +444,11 @@
           <t>AB Value Capital Partners</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-27$</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -447,7 +459,11 @@
           <t>Aberdeen Asia Pacific II (Offshore), L.P.</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -458,7 +474,11 @@
           <t>Aberdeen Standard UK Retail Park Trust</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -469,7 +489,11 @@
           <t>ABN AMRO Capital France 2005</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -480,7 +504,11 @@
           <t>ACP Libra</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -491,7 +519,11 @@
           <t>ACP Virgo</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -502,7 +534,11 @@
           <t>Alto Capital IV</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -513,7 +549,11 @@
           <t>American Capital Equity II, L.P.</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -524,7 +564,11 @@
           <t>Andy's Autos</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -535,7 +579,11 @@
           <t>Apollo European Principal Finance Fund I, LP</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -546,7 +594,11 @@
           <t>Aquagro Fund, L.P.</t>
         </is>
       </c>
-      <c r="C13" s="1" t="n"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -557,7 +609,11 @@
           <t>Arboretum Ventures I</t>
         </is>
       </c>
-      <c r="C14" s="1" t="n"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -568,7 +624,11 @@
           <t>Arboretum Ventures I-A</t>
         </is>
       </c>
-      <c r="C15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -579,7 +639,11 @@
           <t>Asia Opportunity Fund III, L.P.</t>
         </is>
       </c>
-      <c r="C16" s="1" t="n"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -590,7 +654,11 @@
           <t>Asia Pacific Growth Fund III, L.P.</t>
         </is>
       </c>
-      <c r="C17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -601,7 +669,11 @@
           <t>Athena Private Equity S.A.</t>
         </is>
       </c>
-      <c r="C18" s="1" t="n"/>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -612,7 +684,11 @@
           <t>Avista Capital Partners, L.P.</t>
         </is>
       </c>
-      <c r="C19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -623,7 +699,11 @@
           <t>Avotus - Directly Held</t>
         </is>
       </c>
-      <c r="C20" s="1" t="n"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -634,7 +714,11 @@
           <t>Axiom Asia Private Capital Fund I, L.P.</t>
         </is>
       </c>
-      <c r="C21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -645,7 +729,11 @@
           <t>BA Tech International</t>
         </is>
       </c>
-      <c r="C22" s="1" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -656,7 +744,11 @@
           <t>Baring Asia Private Equity Fund II, L.P.1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-28$</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -678,7 +770,11 @@
           <t>Bay City Capital Fund IV</t>
         </is>
       </c>
-      <c r="C25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -689,7 +785,11 @@
           <t>Bay City Capital Fund V, L.P.</t>
         </is>
       </c>
-      <c r="C26" s="1" t="n"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -700,7 +800,11 @@
           <t>Ben Common Stock - Directly held</t>
         </is>
       </c>
-      <c r="C27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -711,7 +815,11 @@
           <t>Benson Elliot IV</t>
         </is>
       </c>
-      <c r="C28" s="1" t="n"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -722,7 +830,11 @@
           <t>BioAM, Fonds Commun de Placement a Risques</t>
         </is>
       </c>
-      <c r="C29" s="1" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -733,7 +845,11 @@
           <t>Blackrock Co-Investment Fund IV, L.P.</t>
         </is>
       </c>
-      <c r="C30" s="1" t="n"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -744,7 +860,11 @@
           <t>BlackRock Diversified Private Equity Program III (Vesey Street Portfolio III, L.P.)</t>
         </is>
       </c>
-      <c r="C31" s="1" t="n"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -755,7 +875,11 @@
           <t>Blue Point Capital Partners II, LP</t>
         </is>
       </c>
-      <c r="C32" s="1" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -766,7 +890,11 @@
           <t>Blum Strategic Partners II, L.P.</t>
         </is>
       </c>
-      <c r="C33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -777,7 +905,11 @@
           <t>Borromin Capital Fund II, LP (f/k/a Steadfast Capital Fund II, LP)</t>
         </is>
       </c>
-      <c r="C34" s="1" t="n"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -788,7 +920,11 @@
           <t>Brigade Energy Opportunities Offshore Fund II LP</t>
         </is>
       </c>
-      <c r="C35" s="1" t="n"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -799,7 +935,11 @@
           <t>Bruckmann, Rosser, Sherrill &amp; Co. II, L.P.</t>
         </is>
       </c>
-      <c r="C36" s="1" t="n"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -810,7 +950,11 @@
           <t>CAI Capital Partners and Company III, L.P.</t>
         </is>
       </c>
-      <c r="C37" s="1" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -821,7 +965,11 @@
           <t>Calera Capital Partners III, L.P.</t>
         </is>
       </c>
-      <c r="C38" s="1" t="n"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -832,7 +980,11 @@
           <t>Capital Dynamics Transaction Partners 2021 LP</t>
         </is>
       </c>
-      <c r="C39" s="1" t="n"/>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -843,7 +995,11 @@
           <t>Capital Midwest Fund II</t>
         </is>
       </c>
-      <c r="C40" s="1" t="n"/>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -854,7 +1010,11 @@
           <t>Capital Midwest Fund III, L.P</t>
         </is>
       </c>
-      <c r="C41" s="1" t="n"/>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -865,7 +1025,11 @@
           <t>Capital Z Partners III Mountainview LLC</t>
         </is>
       </c>
-      <c r="C42" s="1" t="n"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -876,7 +1040,11 @@
           <t>Capital Z Partners III, L.P.</t>
         </is>
       </c>
-      <c r="C43" s="1" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -887,7 +1055,11 @@
           <t>Carlyle Europe Partners III, LP.</t>
         </is>
       </c>
-      <c r="C44" s="1" t="n"/>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -898,7 +1070,11 @@
           <t>Carlyle Fund VIII</t>
         </is>
       </c>
-      <c r="C45" s="1" t="n"/>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -909,7 +1085,11 @@
           <t>Carlyle Japan Partners III</t>
         </is>
       </c>
-      <c r="C46" s="1" t="n"/>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -920,7 +1100,11 @@
           <t>Carlyle Partners V, L.P.</t>
         </is>
       </c>
-      <c r="C47" s="1" t="n"/>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -931,7 +1115,11 @@
           <t>Carlyle Partners VI, L.P.</t>
         </is>
       </c>
-      <c r="C48" s="1" t="n"/>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -942,7 +1130,11 @@
           <t>Carlyle Realty VII</t>
         </is>
       </c>
-      <c r="C49" s="1" t="n"/>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -953,7 +1145,11 @@
           <t>Carlyle South America Buyout Fund</t>
         </is>
       </c>
-      <c r="C50" s="1" t="n"/>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -964,7 +1160,11 @@
           <t>Carlyle Strategic Partners IV, L.P.</t>
         </is>
       </c>
-      <c r="C51" s="1" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -975,7 +1175,11 @@
           <t>Carlyle Structured Credit Fund, L.P.</t>
         </is>
       </c>
-      <c r="C52" s="1" t="n"/>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -986,7 +1190,11 @@
           <t>Carlyle U.S. Growth Fund III</t>
         </is>
       </c>
-      <c r="C53" s="1" t="n"/>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -997,7 +1205,11 @@
           <t>Caxton Global Side Pocket</t>
         </is>
       </c>
-      <c r="C54" s="1" t="n"/>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1008,7 +1220,11 @@
           <t>CCMP Capital Investors II, L.P.</t>
         </is>
       </c>
-      <c r="C55" s="1" t="n"/>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1019,7 +1235,11 @@
           <t>Centerfield Capital Partners, L.P.</t>
         </is>
       </c>
-      <c r="C56" s="1" t="n"/>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1030,7 +1250,11 @@
           <t>Cerberus Institutional Overseas IV, Ltd.</t>
         </is>
       </c>
-      <c r="C57" s="1" t="n"/>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1041,7 +1265,11 @@
           <t>Cerberus Institutional Partners Series IV, L.P.</t>
         </is>
       </c>
-      <c r="C58" s="1" t="n"/>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1052,7 +1280,11 @@
           <t>Cerberus Institutional Partners V</t>
         </is>
       </c>
-      <c r="C59" s="1" t="n"/>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1063,7 +1295,11 @@
           <t>Cerberus Institutional Partners VI</t>
         </is>
       </c>
-      <c r="C60" s="1" t="n"/>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1074,7 +1310,11 @@
           <t>Cerberus International SPV, Ltd.</t>
         </is>
       </c>
-      <c r="C61" s="1" t="n"/>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1085,7 +1325,11 @@
           <t>Cerberus International, Ltd.</t>
         </is>
       </c>
-      <c r="C62" s="1" t="n"/>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1096,7 +1340,11 @@
           <t>Cerberus Levered Loan Opportunities Fund II</t>
         </is>
       </c>
-      <c r="C63" s="1" t="n"/>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1107,7 +1355,11 @@
           <t>Cerberus Levered Loan Opportunities Fund III</t>
         </is>
       </c>
-      <c r="C64" s="1" t="n"/>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1118,7 +1370,11 @@
           <t>Champlain Capital Partners, L.P.</t>
         </is>
       </c>
-      <c r="C65" s="1" t="n"/>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1129,7 +1385,11 @@
           <t>Chartwell Capital Investors II, L.P.</t>
         </is>
       </c>
-      <c r="C66" s="1" t="n"/>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1140,7 +1400,11 @@
           <t>Chayton Sava Property Fund L.P.</t>
         </is>
       </c>
-      <c r="C67" s="1" t="n"/>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1151,7 +1415,11 @@
           <t>China Harvest Fund, L.P.</t>
         </is>
       </c>
-      <c r="C68" s="1" t="n"/>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1162,7 +1430,11 @@
           <t>China Spring Fund, L.P.</t>
         </is>
       </c>
-      <c r="C69" s="1" t="n"/>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1173,7 +1445,11 @@
           <t>Clayton, Dubilier &amp; Rice Fund VI, L.P.</t>
         </is>
       </c>
-      <c r="C70" s="1" t="n"/>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1184,7 +1460,11 @@
           <t>Colony Investors VIII, L.P.</t>
         </is>
       </c>
-      <c r="C71" s="1" t="n"/>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1195,7 +1475,11 @@
           <t>Commonfund Capital Global Private Equity Partners 2014</t>
         </is>
       </c>
-      <c r="C72" s="1" t="n"/>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1206,7 +1490,11 @@
           <t>Commonfund Capital Global Private Equity Partners II</t>
         </is>
       </c>
-      <c r="C73" s="1" t="n"/>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1217,7 +1505,11 @@
           <t>Commonfund Capital Natural Resources Fund VIII</t>
         </is>
       </c>
-      <c r="C74" s="1" t="n"/>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1228,7 +1520,11 @@
           <t>Commonfund Capital Partners IV</t>
         </is>
       </c>
-      <c r="C75" s="1" t="n"/>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1239,7 +1535,11 @@
           <t>Commonfund Capital Private Equity Fund VII</t>
         </is>
       </c>
-      <c r="C76" s="1" t="n"/>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1250,7 +1550,11 @@
           <t>Commonfund Capital Private Equity Fund VIII</t>
         </is>
       </c>
-      <c r="C77" s="1" t="n"/>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1261,7 +1565,11 @@
           <t>Commonfund Capital Venture Partners XII</t>
         </is>
       </c>
-      <c r="C78" s="1" t="n"/>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1272,7 +1580,11 @@
           <t>Commonfund International Partners VII</t>
         </is>
       </c>
-      <c r="C79" s="1" t="n"/>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1283,7 +1595,11 @@
           <t>Conduit Ventures IIA LP</t>
         </is>
       </c>
-      <c r="C80" s="1" t="n"/>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1294,7 +1610,11 @@
           <t>Conning Capital Partners VI, L.P.</t>
         </is>
       </c>
-      <c r="C81" s="1" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1305,7 +1625,11 @@
           <t>Constellation Venture Capital II</t>
         </is>
       </c>
-      <c r="C82" s="1" t="n"/>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1316,7 +1640,11 @@
           <t>Constellation Venture Capital III</t>
         </is>
       </c>
-      <c r="C83" s="1" t="n"/>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1327,7 +1655,11 @@
           <t>Crescendo III Liquidating Trust</t>
         </is>
       </c>
-      <c r="C84" s="1" t="n"/>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1338,7 +1670,11 @@
           <t>Crescendo IV, L.P.</t>
         </is>
       </c>
-      <c r="C85" s="1" t="n"/>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1349,7 +1685,11 @@
           <t>Crescendo Ventures Holdings, LLC</t>
         </is>
       </c>
-      <c r="C86" s="1" t="n"/>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1360,7 +1700,11 @@
           <t>CVI Global Value Fund</t>
         </is>
       </c>
-      <c r="C87" s="1" t="n"/>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1371,7 +1715,11 @@
           <t>Cypress Merchant Banking Partners II, L.P.</t>
         </is>
       </c>
-      <c r="C88" s="1" t="n"/>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1382,7 +1730,11 @@
           <t>DCM V, L.P.</t>
         </is>
       </c>
-      <c r="C89" s="1" t="n"/>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1393,7 +1745,11 @@
           <t>De Novo Ventures II, L.P.</t>
         </is>
       </c>
-      <c r="C90" s="1" t="n"/>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1404,7 +1760,11 @@
           <t>DE Shaw Composite Intl.</t>
         </is>
       </c>
-      <c r="C91" s="1" t="n"/>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1415,7 +1775,11 @@
           <t>Dec13 Test Fund V2 Multi SOI Upload</t>
         </is>
       </c>
-      <c r="C92" s="1" t="n"/>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1426,7 +1790,11 @@
           <t>Dec13v3MultipleSOI</t>
         </is>
       </c>
-      <c r="C93" s="1" t="n"/>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1437,7 +1805,11 @@
           <t>Dec14v1MultiSOI</t>
         </is>
       </c>
-      <c r="C94" s="1" t="n"/>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1448,7 +1820,11 @@
           <t>Dec14v2MultiSOI</t>
         </is>
       </c>
-      <c r="C95" s="1" t="n"/>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1459,7 +1835,11 @@
           <t>Dec15v1MultiSOI</t>
         </is>
       </c>
-      <c r="C96" s="1" t="n"/>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1470,7 +1850,11 @@
           <t>Dec15v2MultiSOI</t>
         </is>
       </c>
-      <c r="C97" s="1" t="n"/>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1481,7 +1865,11 @@
           <t>Delphi Ventures VI, L.P.</t>
         </is>
       </c>
-      <c r="C98" s="1" t="n"/>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1492,7 +1880,11 @@
           <t>Discus Non US Side Holdings</t>
         </is>
       </c>
-      <c r="C99" s="1" t="n"/>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1503,7 +1895,11 @@
           <t>Draper Atlantic Venture Fund II, LP</t>
         </is>
       </c>
-      <c r="C100" s="1" t="n"/>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1514,7 +1910,11 @@
           <t>Edison Venture Fund IV, L.P.</t>
         </is>
       </c>
-      <c r="C101" s="1" t="n"/>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1525,7 +1925,11 @@
           <t>Edison Venture Partners VI, L.P.</t>
         </is>
       </c>
-      <c r="C102" s="1" t="n"/>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1536,7 +1940,11 @@
           <t>Elaia Ventures</t>
         </is>
       </c>
-      <c r="C103" s="1" t="n"/>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1547,7 +1955,11 @@
           <t>Emerald Hill Capital Partners I, L.P.</t>
         </is>
       </c>
-      <c r="C104" s="1" t="n"/>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1558,7 +1970,11 @@
           <t>Energy Capital Partners I, LP</t>
         </is>
       </c>
-      <c r="C105" s="1" t="n"/>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1569,7 +1985,11 @@
           <t>Escalate Capital Partners, L.P.</t>
         </is>
       </c>
-      <c r="C106" s="1" t="n"/>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1580,7 +2000,11 @@
           <t>Essex Woodlands Health Ventures Fund IV, LP</t>
         </is>
       </c>
-      <c r="C107" s="1" t="n"/>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1591,7 +2015,11 @@
           <t>Essex Woodlands Health Ventures Fund VI, LP</t>
         </is>
       </c>
-      <c r="C108" s="1" t="n"/>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1602,7 +2030,11 @@
           <t>Euromed</t>
         </is>
       </c>
-      <c r="C109" s="1" t="n"/>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1613,7 +2045,11 @@
           <t>EuroMedia Venture Fund L.P.</t>
         </is>
       </c>
-      <c r="C110" s="1" t="n"/>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1624,7 +2060,11 @@
           <t>Everstone Capital Partners II</t>
         </is>
       </c>
-      <c r="C111" s="1" t="n"/>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1635,7 +2075,11 @@
           <t>FdG Capital Partners, LLC</t>
         </is>
       </c>
-      <c r="C112" s="1" t="n"/>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1646,7 +2090,11 @@
           <t>Ffenics I Fund, L.P.</t>
         </is>
       </c>
-      <c r="C113" s="1" t="n"/>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1657,7 +2105,11 @@
           <t>Financial Partners Fund I, L.P.</t>
         </is>
       </c>
-      <c r="C114" s="1" t="n"/>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1668,7 +2120,11 @@
           <t>Five Mile Capital Partners II LP</t>
         </is>
       </c>
-      <c r="C115" s="1" t="n"/>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1679,7 +2135,11 @@
           <t>Foresite Capital Fund III, L.P.</t>
         </is>
       </c>
-      <c r="C116" s="1" t="n"/>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1690,7 +2150,11 @@
           <t>Fortress Investment Fund V</t>
         </is>
       </c>
-      <c r="C117" s="1" t="n"/>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1701,7 +2165,11 @@
           <t>Forward Ventures IV, L.P.</t>
         </is>
       </c>
-      <c r="C118" s="1" t="n"/>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1712,7 +2180,11 @@
           <t>FPG International Holdings, L.P.</t>
         </is>
       </c>
-      <c r="C119" s="1" t="n"/>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1723,7 +2195,11 @@
           <t>Fulcrum Bioenergy - Directly Held</t>
         </is>
       </c>
-      <c r="C120" s="1" t="n"/>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1734,7 +2210,11 @@
           <t>GEM Realty Fund III, LP</t>
         </is>
       </c>
-      <c r="C121" s="1" t="n"/>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1745,7 +2225,11 @@
           <t>Glisco Partners II, L.P.</t>
         </is>
       </c>
-      <c r="C122" s="1" t="n"/>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1756,7 +2240,11 @@
           <t>Glisco Partners III, L.P.</t>
         </is>
       </c>
-      <c r="C123" s="1" t="n"/>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1767,7 +2255,11 @@
           <t>Goldman Sachs Energy Private Equity Managers (Concentrated) L.P.</t>
         </is>
       </c>
-      <c r="C124" s="1" t="n"/>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1778,7 +2270,11 @@
           <t>Goldman Sachs Global Long Short Partners LP</t>
         </is>
       </c>
-      <c r="C125" s="1" t="n"/>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1789,7 +2285,11 @@
           <t>Greenspring Global Partners IX-B, L.P.</t>
         </is>
       </c>
-      <c r="C126" s="1" t="n"/>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1800,7 +2300,11 @@
           <t>Greenspring Global Partners VII-B, L.P.</t>
         </is>
       </c>
-      <c r="C127" s="1" t="n"/>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1811,7 +2315,11 @@
           <t>Greenspring Global Partners VIII-B., L.P.</t>
         </is>
       </c>
-      <c r="C128" s="1" t="n"/>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1822,7 +2330,11 @@
           <t>Greenspring Micro I, L.P.</t>
         </is>
       </c>
-      <c r="C129" s="1" t="n"/>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1833,7 +2345,11 @@
           <t>Grotech Partners VI, L.P.</t>
         </is>
       </c>
-      <c r="C130" s="1" t="n"/>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1844,7 +2360,11 @@
           <t>GS Capital Partners VI</t>
         </is>
       </c>
-      <c r="C131" s="1" t="n"/>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1855,7 +2375,11 @@
           <t>GS Mezzanine Partners V</t>
         </is>
       </c>
-      <c r="C132" s="1" t="n"/>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1866,7 +2390,11 @@
           <t>GWGH Common Stock - Directly held</t>
         </is>
       </c>
-      <c r="C133" s="1" t="n"/>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1877,7 +2405,11 @@
           <t>Harvest Growth Capital, LLC</t>
         </is>
       </c>
-      <c r="C134" s="1" t="n"/>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1888,7 +2420,11 @@
           <t>HealthCap IV Bis, L.P.</t>
         </is>
       </c>
-      <c r="C135" s="1" t="n"/>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1899,7 +2435,11 @@
           <t>Hermitage Global</t>
         </is>
       </c>
-      <c r="C136" s="1" t="n"/>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1910,7 +2450,11 @@
           <t>Hertz Group Realty Operating Partnership</t>
         </is>
       </c>
-      <c r="C137" s="1" t="n"/>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1921,7 +2465,11 @@
           <t>Hologram Inc - Directly Held</t>
         </is>
       </c>
-      <c r="C138" s="1" t="n"/>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1932,7 +2480,11 @@
           <t>ICG Mezzanine 1998 Fund</t>
         </is>
       </c>
-      <c r="C139" s="1" t="n"/>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1943,7 +2495,11 @@
           <t>IDCO Capital LP</t>
         </is>
       </c>
-      <c r="C140" s="1" t="n"/>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1954,7 +2510,11 @@
           <t>Ideiasnet FIP I - Old</t>
         </is>
       </c>
-      <c r="C141" s="1" t="n"/>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1965,7 +2525,11 @@
           <t>IGI Investimenti Quattro</t>
         </is>
       </c>
-      <c r="C142" s="1" t="n"/>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1976,7 +2540,11 @@
           <t>Innogest Capital</t>
         </is>
       </c>
-      <c r="C143" s="1" t="n"/>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1987,7 +2555,11 @@
           <t>Institutional Venture Partners XII</t>
         </is>
       </c>
-      <c r="C144" s="1" t="n"/>
+      <c r="C144" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1998,7 +2570,11 @@
           <t>Invesco Mortgage Recovery Feeder Fund, LP</t>
         </is>
       </c>
-      <c r="C145" s="1" t="n"/>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2009,7 +2585,11 @@
           <t>Investindustrial III, L.P.</t>
         </is>
       </c>
-      <c r="C146" s="1" t="n"/>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2020,7 +2600,11 @@
           <t>Investitori Associati IV</t>
         </is>
       </c>
-      <c r="C147" s="1" t="n"/>
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2031,7 +2615,11 @@
           <t>IREO Fund II, Ltd.</t>
         </is>
       </c>
-      <c r="C148" s="1" t="n"/>
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2042,7 +2630,11 @@
           <t>Israel Cleantech Ventures (Cayman) I (A), L.P.</t>
         </is>
       </c>
-      <c r="C149" s="1" t="n"/>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2053,7 +2645,11 @@
           <t>J.P. Morgan Partners Global Investors II, L.P.</t>
         </is>
       </c>
-      <c r="C150" s="1" t="n"/>
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2064,7 +2660,11 @@
           <t>J.P. Morgan Partners Global Investors, L.P.</t>
         </is>
       </c>
-      <c r="C151" s="1" t="n"/>
+      <c r="C151" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2075,7 +2675,11 @@
           <t>Kayne Anderson Energy Fund V (QP), L.P.</t>
         </is>
       </c>
-      <c r="C152" s="1" t="n"/>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2086,7 +2690,11 @@
           <t>Kayne Anderson Energy Fund VI, L.P.</t>
         </is>
       </c>
-      <c r="C153" s="1" t="n"/>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2097,7 +2705,11 @@
           <t>Kayne Anderson Mezzanine Partners I, L.P.</t>
         </is>
       </c>
-      <c r="C154" s="1" t="n"/>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2108,7 +2720,11 @@
           <t>King Street Capital</t>
         </is>
       </c>
-      <c r="C155" s="1" t="n"/>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2119,7 +2735,11 @@
           <t>KKR Lending Partners L.P.</t>
         </is>
       </c>
-      <c r="C156" s="1" t="n"/>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2130,7 +2750,11 @@
           <t>KKR Millennium Fund</t>
         </is>
       </c>
-      <c r="C157" s="1" t="n"/>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2141,7 +2765,11 @@
           <t>KKR Special Situations (Domestic) Fund II L.P.</t>
         </is>
       </c>
-      <c r="C158" s="1" t="n"/>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2152,7 +2780,11 @@
           <t>KKR Special Situations (Domestic) Fund L.P.</t>
         </is>
       </c>
-      <c r="C159" s="1" t="n"/>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2163,7 +2795,11 @@
           <t>Kleiner Perkins Caufield &amp; Byers X, L.P.</t>
         </is>
       </c>
-      <c r="C160" s="1" t="n"/>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2174,7 +2810,11 @@
           <t>Kreos Capital III</t>
         </is>
       </c>
-      <c r="C161" s="1" t="n"/>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2185,7 +2825,11 @@
           <t>KSL Capital Partners II</t>
         </is>
       </c>
-      <c r="C162" s="1" t="n"/>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2196,7 +2840,11 @@
           <t>Latin Idea Mexico Opportunities Fund I, L.P.</t>
         </is>
       </c>
-      <c r="C163" s="1" t="n"/>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2207,7 +2855,11 @@
           <t>Leveraged Green Energy I, L.P.</t>
         </is>
       </c>
-      <c r="C164" s="1" t="n"/>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2218,7 +2870,11 @@
           <t>LiquidTrust Management, LLC</t>
         </is>
       </c>
-      <c r="C165" s="1" t="n"/>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2229,7 +2885,11 @@
           <t>Lotus Innovations Fund II L.P.</t>
         </is>
       </c>
-      <c r="C166" s="1" t="n"/>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2240,7 +2900,11 @@
           <t>Lotus Innovations Fund II L.P. (Cash Funded)</t>
         </is>
       </c>
-      <c r="C167" s="1" t="n"/>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2251,7 +2915,11 @@
           <t>LS Power Equity Partners II</t>
         </is>
       </c>
-      <c r="C168" s="1" t="n"/>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2262,7 +2930,11 @@
           <t>LS Power Equity Partners II, L.P.</t>
         </is>
       </c>
-      <c r="C169" s="1" t="n"/>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2273,7 +2945,11 @@
           <t>Lucas Brand Equity, L.P.</t>
         </is>
       </c>
-      <c r="C170" s="1" t="n"/>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2284,7 +2960,11 @@
           <t>Macquarie Global Opportunities Partners, L.P.</t>
         </is>
       </c>
-      <c r="C171" s="1" t="n"/>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2295,7 +2975,11 @@
           <t>Massey Burch Venture Fund II, L.P.</t>
         </is>
       </c>
-      <c r="C172" s="1" t="n"/>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2306,7 +2990,11 @@
           <t>Matlin Patterson Global Opportunities Fund III LP</t>
         </is>
       </c>
-      <c r="C173" s="1" t="n"/>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2317,7 +3005,11 @@
           <t>Meadow Real Estate Fund III LP</t>
         </is>
       </c>
-      <c r="C174" s="1" t="n"/>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2328,7 +3020,11 @@
           <t>Meadow Real Estate Fund IV LP</t>
         </is>
       </c>
-      <c r="C175" s="1" t="n"/>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2339,7 +3035,11 @@
           <t>Meadow Real Estate Fund V LP</t>
         </is>
       </c>
-      <c r="C176" s="1" t="n"/>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2350,7 +3050,11 @@
           <t>Medica III Investments (International) L.P.</t>
         </is>
       </c>
-      <c r="C177" s="1" t="n"/>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2361,7 +3065,11 @@
           <t>Menlo Ventures IX, L.P.</t>
         </is>
       </c>
-      <c r="C178" s="1" t="n"/>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2372,7 +3080,11 @@
           <t>Mercapital Spanish Private Equity Fund II</t>
         </is>
       </c>
-      <c r="C179" s="1" t="n"/>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2383,7 +3095,11 @@
           <t>MetricStream, Inc. - Directly Held</t>
         </is>
       </c>
-      <c r="C180" s="1" t="n"/>
+      <c r="C180" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2394,7 +3110,11 @@
           <t>MHR Institutional Partners III LP</t>
         </is>
       </c>
-      <c r="C181" s="1" t="n"/>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2405,7 +3125,11 @@
           <t>MHT Profits Rights - Directly held</t>
         </is>
       </c>
-      <c r="C182" s="1" t="n"/>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2416,7 +3140,11 @@
           <t>Mid-Atlantic Venture Fund III, L.P.</t>
         </is>
       </c>
-      <c r="C183" s="1" t="n"/>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -2427,7 +3155,11 @@
           <t>Mid-Atlantic Venture Fund IV, L.P.</t>
         </is>
       </c>
-      <c r="C184" s="1" t="n"/>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -2438,7 +3170,11 @@
           <t>Middle Market Fund II, F.C.P.R.</t>
         </is>
       </c>
-      <c r="C185" s="1" t="n"/>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -2449,7 +3185,11 @@
           <t>Middle Market Fund III, F.C.P.R.</t>
         </is>
       </c>
-      <c r="C186" s="1" t="n"/>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -2460,7 +3200,11 @@
           <t>MidOcean Partners III</t>
         </is>
       </c>
-      <c r="C187" s="1" t="n"/>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -2471,7 +3215,11 @@
           <t>Millennium Technology Value Partners, L.P.</t>
         </is>
       </c>
-      <c r="C188" s="1" t="n"/>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -2482,7 +3230,11 @@
           <t>Mission Ventures III</t>
         </is>
       </c>
-      <c r="C189" s="1" t="n"/>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -2493,7 +3245,11 @@
           <t>Morgan Stanley Dean Witter Venture Partners, IV, L.P.</t>
         </is>
       </c>
-      <c r="C190" s="1" t="n"/>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -2504,7 +3260,11 @@
           <t>Morrison Street Debt Opportunities Fund</t>
         </is>
       </c>
-      <c r="C191" s="1" t="n"/>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -2515,7 +3275,11 @@
           <t>Mountgrange Real Estate Opportunity Fund</t>
         </is>
       </c>
-      <c r="C192" s="1" t="n"/>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2526,7 +3290,11 @@
           <t>NCH Agribusiness Partners I</t>
         </is>
       </c>
-      <c r="C193" s="1" t="n"/>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -2537,7 +3305,11 @@
           <t>NCH Agribusiness Partners II</t>
         </is>
       </c>
-      <c r="C194" s="1" t="n"/>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2548,7 +3320,11 @@
           <t>NCH New Europe Property Fund</t>
         </is>
       </c>
-      <c r="C195" s="1" t="n"/>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2559,7 +3335,11 @@
           <t>NCH New Europe Property Fund II, L.P.</t>
         </is>
       </c>
-      <c r="C196" s="1" t="n"/>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2570,7 +3350,11 @@
           <t>Neilsoft Limited - Directly Held</t>
         </is>
       </c>
-      <c r="C197" s="1" t="n"/>
+      <c r="C197" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2581,7 +3365,11 @@
           <t>New Century Holdings XI, L.P.</t>
         </is>
       </c>
-      <c r="C198" s="1" t="n"/>
+      <c r="C198" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2592,7 +3380,11 @@
           <t>NewQuest Asia Fund I, L.P.</t>
         </is>
       </c>
-      <c r="C199" s="1" t="n"/>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2603,7 +3395,11 @@
           <t>Nexar Asset Recovery Fund I</t>
         </is>
       </c>
-      <c r="C200" s="1" t="n"/>
+      <c r="C200" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2614,7 +3410,11 @@
           <t>NEXT Fund</t>
         </is>
       </c>
-      <c r="C201" s="1" t="n"/>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2625,7 +3425,11 @@
           <t>NGN BioMed Opportunity I, L.P.</t>
         </is>
       </c>
-      <c r="C202" s="1" t="n"/>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2636,7 +3440,11 @@
           <t>Nord Ovest</t>
         </is>
       </c>
-      <c r="C203" s="1" t="n"/>
+      <c r="C203" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2647,7 +3455,11 @@
           <t>Notion Capital 2</t>
         </is>
       </c>
-      <c r="C204" s="1" t="n"/>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2658,7 +3470,11 @@
           <t>Nova/Paul Investments (SCA) SICAR</t>
         </is>
       </c>
-      <c r="C205" s="1" t="n"/>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2669,7 +3485,11 @@
           <t>Nova/Paul Investments SCA -Old</t>
         </is>
       </c>
-      <c r="C206" s="1" t="n"/>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-20$</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2680,7 +3500,11 @@
           <t>Novak Biddle Venture Partners Fund II</t>
         </is>
       </c>
-      <c r="C207" s="1" t="n"/>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2691,7 +3515,11 @@
           <t>Novak Biddle Venture Partners Fund III</t>
         </is>
       </c>
-      <c r="C208" s="1" t="n"/>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2702,7 +3530,11 @@
           <t>Nycomed/Fougera - Directly Held</t>
         </is>
       </c>
-      <c r="C209" s="1" t="n"/>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2713,7 +3545,11 @@
           <t>Oak Hill Capital Partners (Bermuda), L.P.</t>
         </is>
       </c>
-      <c r="C210" s="1" t="n"/>
+      <c r="C210" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2724,7 +3560,11 @@
           <t>Oak Hill Capital Partners, L.P.</t>
         </is>
       </c>
-      <c r="C211" s="1" t="n"/>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2735,7 +3575,11 @@
           <t>Oak Investment Partners X, L.P.</t>
         </is>
       </c>
-      <c r="C212" s="1" t="n"/>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2746,7 +3590,11 @@
           <t>OCM Opportunities Fund VIIB</t>
         </is>
       </c>
-      <c r="C213" s="1" t="n"/>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2757,7 +3605,11 @@
           <t>OCM Principal Opportunities Fund II, L.P.</t>
         </is>
       </c>
-      <c r="C214" s="1" t="n"/>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2768,7 +3620,11 @@
           <t>OCM Principal Opportunities Fund III, L.P.</t>
         </is>
       </c>
-      <c r="C215" s="1" t="n"/>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2779,7 +3635,11 @@
           <t>OFS Energy Fund II, L.P.</t>
         </is>
       </c>
-      <c r="C216" s="1" t="n"/>
+      <c r="C216" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2790,7 +3650,11 @@
           <t>OFS Energy Fund III, L.P.</t>
         </is>
       </c>
-      <c r="C217" s="1" t="n"/>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2801,7 +3665,11 @@
           <t>Olympus Capital Asia III</t>
         </is>
       </c>
-      <c r="C218" s="1" t="n"/>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2812,7 +3680,11 @@
           <t>Oria Tech III</t>
         </is>
       </c>
-      <c r="C219" s="1" t="n"/>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>$2021-12-23$</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4038,6 +4910,696 @@
       <c r="B331" t="inlineStr">
         <is>
           <t>York Investments Class S</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>332</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Sentient Global Resources Fund IV, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>333</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>360 Capital One S.C.A. SICAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>334</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>360 Capital One S.C.A. SICAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>335</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>ABRY Advanced Securities Fund III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>336</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>ABRY Advanced Securities Fund, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>337</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>ABRY Partners VI, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>338</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>ABRY Partners VII, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>339</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ABRY Partners VIII (Cayman AIV), L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>340</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ABRY Partners VIII, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>341</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Accel-KKR Capital Partners III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>342</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Accel-KKR Capital Partners IV, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>343</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ALTUS CAPITAL PARTNERS II, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>344</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Angeles Equity Partners I, L.P</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>345</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ArcLight Energy Partners Fund V, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>346</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Ascendent Capital Partners I, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>347</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Aspect US Fund LLC- Diversified Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>348</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Azalea Fund III LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>349</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Baird Capital Partners V LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>350</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Banyantree Growth Capital LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>351</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>BDCM I Partners I L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>352</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>BDCM Opportunity Fund II, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>353</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Benson Elliot Real Estate Partners II</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>354</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Cadent Energy Partners II, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>355</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Camcap Resources, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>356</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Canaan Natural Gas Fund X, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>357</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>CAPRICORN HEALTHCARE &amp; SPECIAL OPPORTUNITIES II, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>358</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>CDH China Growth Capital Fund IV, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>359</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>China Special Opportunities Fund III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>360</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>CHSO MAIN, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>361</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Claremont Creek Ventures II, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>362</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Claremont Creek Ventures, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>363</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Colony Investors VII, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>364</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Colony Investors VIII, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>365</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Crosslink Crossover Fund V, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>366</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Crosslink Crossover Fund VI, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>367</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>CX Partners Fund, LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>368</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Dace Ventures I, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>369</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Darwin Private Equity I, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>370</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Delta Capital Growth Fund, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>371</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Drawbridge Special Opportunities Fund, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>372</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>ECP IHS ( Mauritius) Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>373</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Elysian Capital I LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>374</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>EMG Ascent 2016 Equity, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>375</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>EMG Ascent Secondary Fund, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>376</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>EMG Investments LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>377</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Energy &amp; Minerals Group Fund II, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>378</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Energy &amp; Minerals Group Fund III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>379</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Energy &amp; Minerals Group Fund IV, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>380</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>EnerVest Energy Institutional Fund XI-A, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>381</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>EnerVest Partners X, L.P</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>382</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Euroknights VI</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>383</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Fairhaven Capital Partners, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>384</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Florida Real Estate Value Fund L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>385</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Forum European Realty Income III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>386</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Founders Fund VI, LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>387</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Garrison Opportunity Fund, LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>388</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Garrison Opportunity MM II A &amp; B LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>389</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Gavea Investment Fund II A, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>390</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Gavea Investment Fund III A, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>391</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Glade Brook Private Investors III LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>392</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Glade Brook Private Opportunities Fund, LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>393</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Graham Absolute Return Trading Ltd. Series D</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>394</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Great Point Partners I, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>395</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Greenfield Acquisition Partners V, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>396</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>GTIS Brazil Real Estate Fund, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>397</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Halifax Capital Partners II, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>398</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Halifax Capital Partners III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>399</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Hancock Park Capital III, L.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>400</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Harbinger Capital Partners Fund I, L.P.</t>
         </is>
       </c>
     </row>

--- a/Beneficient/test_NAVRollForward/PDFFileNameData/FundName.xlsx
+++ b/Beneficient/test_NAVRollForward/PDFFileNameData/FundName.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-27$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-27$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -446,7 +446,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-27$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>$2021-12-28$</t>
+          <t>$2022-03-11$</t>
         </is>
       </c>
     </row>
